--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/12.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/12.xlsx
@@ -479,13 +479,13 @@
         <v>-8.455954858767729</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.43581184746473</v>
+        <v>-10.41045205686031</v>
       </c>
       <c r="F2" t="n">
-        <v>2.736183841658923</v>
+        <v>2.782242563056115</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.6904730545057</v>
+        <v>-15.7592207367276</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.002680910551508</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.93648769273802</v>
+        <v>-10.91667903853849</v>
       </c>
       <c r="F3" t="n">
-        <v>2.608272042895259</v>
+        <v>2.654226025869717</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.27915217612719</v>
+        <v>-15.33429695569654</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-7.469650349896105</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.23568608957999</v>
+        <v>-11.21497406648438</v>
       </c>
       <c r="F4" t="n">
-        <v>2.74746940670849</v>
+        <v>2.788343576180359</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.76530547419513</v>
+        <v>-14.81247704133387</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-6.935892117848828</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.77267998293622</v>
+        <v>-11.75332955933615</v>
       </c>
       <c r="F5" t="n">
-        <v>2.808348614922517</v>
+        <v>2.844745216822515</v>
       </c>
       <c r="G5" t="n">
-        <v>-14.15368545464105</v>
+        <v>-14.18954527212454</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.412115826739929</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.49889692926393</v>
+        <v>-12.48013565929173</v>
       </c>
       <c r="F6" t="n">
-        <v>2.835711527861724</v>
+        <v>2.870013361307046</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.66644231208337</v>
+        <v>-13.7010583607969</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.931333906862638</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.81790398030542</v>
+        <v>-12.79264892812373</v>
       </c>
       <c r="F7" t="n">
-        <v>3.061030059767829</v>
+        <v>3.088785741792289</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.0020472197743</v>
+        <v>-13.03699057605887</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.496914024575368</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.6090325641224</v>
+        <v>-13.58841218714669</v>
       </c>
       <c r="F8" t="n">
-        <v>3.193733641371565</v>
+        <v>3.220232462323219</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.69951028570769</v>
+        <v>-12.73772671770269</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.113479903551951</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.23223927169141</v>
+        <v>-14.21339944790216</v>
       </c>
       <c r="F9" t="n">
-        <v>3.35654951951127</v>
+        <v>3.386845108287024</v>
       </c>
       <c r="G9" t="n">
-        <v>-12.07536093233409</v>
+        <v>-12.11444145631664</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.771663707434723</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.21901922917514</v>
+        <v>-15.19477228431227</v>
       </c>
       <c r="F10" t="n">
-        <v>3.542276927623996</v>
+        <v>3.566864272360758</v>
       </c>
       <c r="G10" t="n">
-        <v>-11.74632517731583</v>
+        <v>-11.77735393505072</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.459561815168704</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.08679015382759</v>
+        <v>-16.06245156284482</v>
       </c>
       <c r="F11" t="n">
-        <v>3.715226248163198</v>
+        <v>3.740337285013628</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.2707996458015</v>
+        <v>-11.30614886347416</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.168185497026026</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.89688948446223</v>
+        <v>-16.86804714130191</v>
       </c>
       <c r="F12" t="n">
-        <v>3.755943310000966</v>
+        <v>3.780373547103627</v>
       </c>
       <c r="G12" t="n">
-        <v>-11.03263756480766</v>
+        <v>-11.06847119768546</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.881686490220278</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.51135053373296</v>
+        <v>-17.49101818741976</v>
       </c>
       <c r="F13" t="n">
-        <v>3.619259668333346</v>
+        <v>3.644213597549676</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.45996714620772</v>
+        <v>-10.48611247498264</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.598920570035379</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.46968091714162</v>
+        <v>-18.45575070691803</v>
       </c>
       <c r="F14" t="n">
-        <v>3.863797700811105</v>
+        <v>3.891815228892399</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.887453835241878</v>
+        <v>-9.913271856445762</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.308860419992281</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.30760139131494</v>
+        <v>-19.29571358033465</v>
       </c>
       <c r="F15" t="n">
-        <v>3.90380777829542</v>
+        <v>3.931353983474412</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.40923128934215</v>
+        <v>-9.430218250797436</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.011287717898067</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.29984083908367</v>
+        <v>-20.29218184192126</v>
       </c>
       <c r="F16" t="n">
-        <v>4.112708562438002</v>
+        <v>4.148345810773179</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.884622714474187</v>
+        <v>-8.902611538578718</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.702049611757623</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.25934952974809</v>
+        <v>-21.25848543776054</v>
       </c>
       <c r="F17" t="n">
-        <v>4.312916057493676</v>
+        <v>4.343552046143315</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.522201587209524</v>
+        <v>-8.537166089357617</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.381890514156842</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.02397929261342</v>
+        <v>-22.02729164523237</v>
       </c>
       <c r="F18" t="n">
-        <v>4.574683560511147</v>
+        <v>4.602805827015175</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.035141736891632</v>
+        <v>-8.041360580741452</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.055312358482861</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.74193499584799</v>
+        <v>-22.75116506935141</v>
       </c>
       <c r="F19" t="n">
-        <v>4.772063118153009</v>
+        <v>4.798116800808044</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.480983834509892</v>
+        <v>-7.49499259855054</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.725948485952558</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.44115561371606</v>
+        <v>-23.4508962870303</v>
       </c>
       <c r="F20" t="n">
-        <v>4.878974863158544</v>
+        <v>4.902724300513436</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.777220187555749</v>
+        <v>-6.784512600238591</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.40606019141931</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.11530447164222</v>
+        <v>-24.13457634142523</v>
       </c>
       <c r="F21" t="n">
-        <v>4.931527366765233</v>
+        <v>4.953548620145016</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.636307732070252</v>
+        <v>-6.642997898822374</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.101676859134039</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.84018600308006</v>
+        <v>-24.86127770295808</v>
       </c>
       <c r="F22" t="n">
-        <v>5.253493278248961</v>
+        <v>5.274257670555938</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.493654000306805</v>
+        <v>-6.492475693051049</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.8242204821904272</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.36465056261677</v>
+        <v>-25.38860947681713</v>
       </c>
       <c r="F23" t="n">
-        <v>5.245795004178025</v>
+        <v>5.263103028534787</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.181454946743004</v>
+        <v>-6.181991731159516</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.5771579108996489</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.80385804604815</v>
+        <v>-25.82900835980711</v>
       </c>
       <c r="F24" t="n">
-        <v>5.167031710282202</v>
+        <v>5.185648964923136</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.890059562394708</v>
+        <v>-5.880057043023629</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.3646305181974878</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.13454343122447</v>
+        <v>-26.15549111577123</v>
       </c>
       <c r="F25" t="n">
-        <v>5.276457177433348</v>
+        <v>5.290596864502412</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.621876830984791</v>
+        <v>-5.61352394177177</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.1879548773377752</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.44536779298989</v>
+        <v>-26.47493021280651</v>
       </c>
       <c r="F26" t="n">
-        <v>5.275724008474211</v>
+        <v>5.293424801916225</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.385194180212067</v>
+        <v>-5.380179828223686</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.04643538001203647</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.21617393944263</v>
+        <v>-26.23696451635529</v>
       </c>
       <c r="F27" t="n">
-        <v>5.387296613291401</v>
+        <v>5.406699406102839</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.952441202081654</v>
+        <v>-4.947924357601258</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.05872507161425368</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.37669866458504</v>
+        <v>-26.40256905500028</v>
       </c>
       <c r="F28" t="n">
-        <v>5.18811031785738</v>
+        <v>5.207251264611984</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.780604727283999</v>
+        <v>-4.768821654726445</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.1286882641255657</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.51029252278201</v>
+        <v>-26.53278509906409</v>
       </c>
       <c r="F29" t="n">
-        <v>5.228879748906516</v>
+        <v>5.249513218185076</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.74268941825436</v>
+        <v>-4.735004236486267</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.1606621166804597</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.54837803174859</v>
+        <v>-26.5736723608388</v>
       </c>
       <c r="F30" t="n">
-        <v>5.212723847199825</v>
+        <v>5.235111685059177</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.74882970828713</v>
+        <v>-4.739992403868965</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.152943223248956</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.18490952025659</v>
+        <v>-26.21294014064073</v>
       </c>
       <c r="F31" t="n">
-        <v>5.077637466478896</v>
+        <v>5.103586410711197</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.952820878864063</v>
+        <v>-4.949416880125215</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.1046943422969406</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.85360879684671</v>
+        <v>-25.88620863092261</v>
       </c>
       <c r="F32" t="n">
-        <v>5.099161212350694</v>
+        <v>5.124534095257959</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.041966368913377</v>
+        <v>-5.037266232193197</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.0151235661904329</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.6790883999665</v>
+        <v>-25.71155731101398</v>
       </c>
       <c r="F33" t="n">
-        <v>4.99696269636818</v>
+        <v>5.023801917193718</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.096849302425892</v>
+        <v>-5.091861135043194</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.1123512191243793</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.18933153526321</v>
+        <v>-25.21603983306034</v>
       </c>
       <c r="F34" t="n">
-        <v>5.049777046031703</v>
+        <v>5.07501900591055</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.321932172880847</v>
+        <v>-5.316210836539012</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.2741372920705396</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.86519230150776</v>
+        <v>-24.8857864938778</v>
       </c>
       <c r="F35" t="n">
-        <v>4.89266941193099</v>
+        <v>4.915135803607392</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.427521595299368</v>
+        <v>-5.424968596245231</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.4659566440565546</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.35035058455972</v>
+        <v>-24.37624715958066</v>
       </c>
       <c r="F36" t="n">
-        <v>5.038805696250336</v>
+        <v>5.068656146729472</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.465751119597208</v>
+        <v>-5.462700613035086</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.6819155719100081</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.79328619094712</v>
+        <v>-23.8130162913296</v>
       </c>
       <c r="F37" t="n">
-        <v>5.011861737002064</v>
+        <v>5.039277019152639</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.560722684411089</v>
+        <v>-5.555315563337456</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.918916790017779</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.1954261816797</v>
+        <v>-23.21482897449114</v>
       </c>
       <c r="F38" t="n">
-        <v>4.828831343274734</v>
+        <v>4.853340134194445</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.582626107065296</v>
+        <v>-5.584668506308605</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.169407848914652</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.0912245433624</v>
+        <v>-23.11143905895003</v>
       </c>
       <c r="F39" t="n">
-        <v>4.975019996805447</v>
+        <v>5.003404109366309</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.578960262269613</v>
+        <v>-5.580478969399253</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.431674466387439</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.37625388517574</v>
+        <v>-22.39570904719855</v>
       </c>
       <c r="F40" t="n">
-        <v>5.141632642769252</v>
+        <v>5.172923246560978</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.627401782783999</v>
+        <v>-5.635139333763459</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.699178131687014</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.87132304147889</v>
+        <v>-21.88758368160832</v>
       </c>
       <c r="F41" t="n">
-        <v>5.114976714183499</v>
+        <v>5.140820919993065</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.698938125511191</v>
+        <v>-5.705091507846801</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.968712601168724</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.05107717614191</v>
+        <v>-21.05954789608051</v>
       </c>
       <c r="F42" t="n">
-        <v>5.24006057553335</v>
+        <v>5.269073118630614</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.922646304167764</v>
+        <v>-5.924570872685497</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.236366877134591</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.55689511307812</v>
+        <v>-20.56972556986301</v>
       </c>
       <c r="F43" t="n">
-        <v>5.241422175028889</v>
+        <v>5.270984594845507</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.034703324190097</v>
+        <v>-6.039979522235313</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.49792612403628</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.90743833831146</v>
+        <v>-19.91660295030066</v>
       </c>
       <c r="F44" t="n">
-        <v>5.116443052101772</v>
+        <v>5.133960553304002</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.046813704318694</v>
+        <v>-6.053202748105456</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.753264896017</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.38252864047813</v>
+        <v>-19.38730733101536</v>
       </c>
       <c r="F45" t="n">
-        <v>5.045116186220048</v>
+        <v>5.063052641113213</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.034637862675889</v>
+        <v>-6.031116033211465</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.998067759523289</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.72335737700291</v>
+        <v>-18.71973080911575</v>
       </c>
       <c r="F46" t="n">
-        <v>5.25477632392745</v>
+        <v>5.279677883932413</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.220915147507967</v>
+        <v>-6.226898329906636</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.23465131345485</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.35974485017965</v>
+        <v>-18.36127664961213</v>
       </c>
       <c r="F47" t="n">
-        <v>5.270146687463636</v>
+        <v>5.296069447090254</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.441468081179685</v>
+        <v>-6.450737431591627</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.458362019030683</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.74486484721799</v>
+        <v>-17.73449574336734</v>
       </c>
       <c r="F48" t="n">
-        <v>5.171011770346087</v>
+        <v>5.195546745871481</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.586360596729067</v>
+        <v>-6.598903022851441</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.670629657040259</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.24727878541535</v>
+        <v>-17.23709297380448</v>
       </c>
       <c r="F49" t="n">
-        <v>5.189262440507452</v>
+        <v>5.214268738935149</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.887300269848982</v>
+        <v>-6.906729247266104</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.868616975027682</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.6474025615103</v>
+        <v>-16.62881149147505</v>
       </c>
       <c r="F50" t="n">
-        <v>5.054359352026307</v>
+        <v>5.084602571590694</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.07372157001232</v>
+        <v>-7.099369391279261</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.051430996002605</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.87956518444875</v>
+        <v>-15.85923283813555</v>
       </c>
       <c r="F51" t="n">
-        <v>4.992904082487245</v>
+        <v>5.020581210694654</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.121560844595987</v>
+        <v>-7.148256050090266</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.218903279159647</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.40423603747704</v>
+        <v>-15.3804080463051</v>
       </c>
       <c r="F52" t="n">
-        <v>4.900524793636025</v>
+        <v>4.925190692189838</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.361084525085365</v>
+        <v>-7.392479867299825</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.370163686763179</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.82220462234527</v>
+        <v>-14.79794458517955</v>
       </c>
       <c r="F53" t="n">
-        <v>4.855173056592286</v>
+        <v>4.875361387574229</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.608817079456506</v>
+        <v>-7.645305327476397</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.508689884469701</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.12383500416191</v>
+        <v>-14.0952152301499</v>
       </c>
       <c r="F54" t="n">
-        <v>4.69364022413107</v>
+        <v>4.711524309812869</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.87159268979279</v>
+        <v>-7.913645166520414</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.632761658154971</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.58478561925953</v>
+        <v>-13.55189775452111</v>
       </c>
       <c r="F55" t="n">
-        <v>4.762112967993297</v>
+        <v>4.784500805852649</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.181120913576878</v>
+        <v>-8.227572404059321</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.747331578532751</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.27174865831386</v>
+        <v>-13.23985580859141</v>
       </c>
       <c r="F56" t="n">
-        <v>4.660307221096036</v>
+        <v>4.682511766715603</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.212149671311769</v>
+        <v>-8.256467116431011</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.851547113100906</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.96182766544452</v>
+        <v>-12.9304454155329</v>
       </c>
       <c r="F57" t="n">
-        <v>4.570179808333593</v>
+        <v>4.594060168716902</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.538854996424201</v>
+        <v>-8.592337053532651</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.94870608752714</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.50192125122036</v>
+        <v>-12.47017241682918</v>
       </c>
       <c r="F58" t="n">
-        <v>4.478664611469928</v>
+        <v>4.50385420213741</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.968531283386808</v>
+        <v>-9.016946619295512</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.038741965367651</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.18478639948524</v>
+        <v>-12.15398021089865</v>
       </c>
       <c r="F59" t="n">
-        <v>4.458790495756188</v>
+        <v>4.483770609578201</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.312714832792945</v>
+        <v>-9.362583414317079</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.122875448694601</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.84703117077439</v>
+        <v>-11.81794007386007</v>
       </c>
       <c r="F60" t="n">
-        <v>4.359419917187487</v>
+        <v>4.385918738139141</v>
       </c>
       <c r="G60" t="n">
-        <v>-9.409768073758661</v>
+        <v>-9.453915318940961</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.201558096565969</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.6975563492304</v>
+        <v>-11.66212857774069</v>
       </c>
       <c r="F61" t="n">
-        <v>4.229256242335047</v>
+        <v>4.257038108965189</v>
       </c>
       <c r="G61" t="n">
-        <v>-9.798858221911917</v>
+        <v>-9.850036033720224</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.272969893260713</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.61892397836299</v>
+        <v>-11.58580045217342</v>
       </c>
       <c r="F62" t="n">
-        <v>4.122265943512462</v>
+        <v>4.152168763202964</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.997992148134571</v>
+        <v>-10.0450982537591</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.3394307566409</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.3738098845602</v>
+        <v>-11.34094820442746</v>
       </c>
       <c r="F63" t="n">
-        <v>4.196734962076199</v>
+        <v>4.232764979496629</v>
       </c>
       <c r="G63" t="n">
-        <v>-10.21950081991374</v>
+        <v>-10.27548350686495</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.398215582964717</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.32130975016488</v>
+        <v>-11.29196989949657</v>
       </c>
       <c r="F64" t="n">
-        <v>4.09540053808124</v>
+        <v>4.128340772031022</v>
       </c>
       <c r="G64" t="n">
-        <v>-10.41783611566304</v>
+        <v>-10.4792259236879</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.451482798934352</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.3918510778761</v>
+        <v>-11.36577121061538</v>
       </c>
       <c r="F65" t="n">
-        <v>4.104591334676131</v>
+        <v>4.138448029824835</v>
       </c>
       <c r="G65" t="n">
-        <v>-10.29564565324121</v>
+        <v>-10.3486694797502</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.497041672950133</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.24922353071833</v>
+        <v>-11.22008006459265</v>
       </c>
       <c r="F66" t="n">
-        <v>4.123496619979583</v>
+        <v>4.157091469071452</v>
       </c>
       <c r="G66" t="n">
-        <v>-10.48012929258397</v>
+        <v>-10.53255087316225</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.536945106529026</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.51919990761756</v>
+        <v>-11.49237377909487</v>
       </c>
       <c r="F67" t="n">
-        <v>3.827793867996359</v>
+        <v>3.859241579422184</v>
       </c>
       <c r="G67" t="n">
-        <v>-10.58438330011264</v>
+        <v>-10.63440898927088</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.571334987158403</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.51935701525167</v>
+        <v>-11.49230831758066</v>
       </c>
       <c r="F68" t="n">
-        <v>3.949290438367576</v>
+        <v>3.987912731750668</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.36856978006963</v>
+        <v>-10.41856928462218</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.602410422841999</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.46618917341141</v>
+        <v>-11.44211242848548</v>
       </c>
       <c r="F69" t="n">
-        <v>3.91260580580506</v>
+        <v>3.945964993445778</v>
       </c>
       <c r="G69" t="n">
-        <v>-10.42817903490801</v>
+        <v>-10.48354638362567</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.634083467761014</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.66855689843598</v>
+        <v>-11.64142964694792</v>
       </c>
       <c r="F70" t="n">
-        <v>3.678541615600681</v>
+        <v>3.717635231886075</v>
       </c>
       <c r="G70" t="n">
-        <v>-10.49129702690797</v>
+        <v>-10.5525559119044</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.666029545502904</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.6291228822767</v>
+        <v>-11.6049021220195</v>
       </c>
       <c r="F71" t="n">
-        <v>3.588623679683707</v>
+        <v>3.627272157672482</v>
       </c>
       <c r="G71" t="n">
-        <v>-10.49320850312286</v>
+        <v>-10.55284394256692</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.703829278231503</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.78650545473709</v>
+        <v>-11.76220614066284</v>
       </c>
       <c r="F72" t="n">
-        <v>3.624156189596151</v>
+        <v>3.659557776480178</v>
       </c>
       <c r="G72" t="n">
-        <v>-10.65165155211343</v>
+        <v>-10.71672029723681</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.747012257343131</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.17255818863106</v>
+        <v>-12.14926698187563</v>
       </c>
       <c r="F73" t="n">
-        <v>3.724050460278521</v>
+        <v>3.762410907604778</v>
       </c>
       <c r="G73" t="n">
-        <v>-10.44457059806585</v>
+        <v>-10.50514868331451</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.799762095960657</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.47628652225626</v>
+        <v>-12.45633385272547</v>
       </c>
       <c r="F74" t="n">
-        <v>3.716037970939385</v>
+        <v>3.754555525899743</v>
       </c>
       <c r="G74" t="n">
-        <v>-10.35695690744902</v>
+        <v>-10.41906679213016</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.860954787043754</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.78746437619841</v>
+        <v>-12.76091318603539</v>
       </c>
       <c r="F75" t="n">
-        <v>3.66647051238061</v>
+        <v>3.706166374596723</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.27837690579298</v>
+        <v>-10.33900736025301</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.9319155403715</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.02552171876952</v>
+        <v>-13.00270183491639</v>
       </c>
       <c r="F76" t="n">
-        <v>3.66950792663989</v>
+        <v>3.715042955923414</v>
       </c>
       <c r="G76" t="n">
-        <v>-10.22167414218546</v>
+        <v>-10.28594425683549</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.011888208135874</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.47007086176033</v>
+        <v>-13.44600720913723</v>
       </c>
       <c r="F77" t="n">
-        <v>3.686239889671616</v>
+        <v>3.726616551635499</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.999851255138097</v>
+        <v>-10.06137198619137</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.09672895794845</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.22408276702101</v>
+        <v>-14.20181275988724</v>
       </c>
       <c r="F78" t="n">
-        <v>3.660474237679099</v>
+        <v>3.702291052955573</v>
       </c>
       <c r="G78" t="n">
-        <v>-9.696018183090159</v>
+        <v>-9.757237791178071</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.18720205880753</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.82634179004325</v>
+        <v>-14.80573450537038</v>
       </c>
       <c r="F79" t="n">
-        <v>3.791449635307727</v>
+        <v>3.841121832289236</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.712449023156525</v>
+        <v>-9.772490323988681</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.278055805550181</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.20851920229608</v>
+        <v>-15.17859019799989</v>
       </c>
       <c r="F80" t="n">
-        <v>3.827872421813409</v>
+        <v>3.875999727059594</v>
       </c>
       <c r="G80" t="n">
-        <v>-9.321787798662262</v>
+        <v>-9.377024224351503</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.370102514319779</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.77116091691926</v>
+        <v>-15.74022380530426</v>
       </c>
       <c r="F81" t="n">
-        <v>3.818917286669668</v>
+        <v>3.861624378539378</v>
       </c>
       <c r="G81" t="n">
-        <v>-9.12760276291378</v>
+        <v>-9.181621604438742</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.45916547233676</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.61049535979947</v>
+        <v>-16.5835514005512</v>
       </c>
       <c r="F82" t="n">
-        <v>3.704359636804565</v>
+        <v>3.750313619779023</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.885787929427099</v>
+        <v>-8.941116001236233</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.545233385190208</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.57284508018055</v>
+        <v>-17.53976083089951</v>
       </c>
       <c r="F83" t="n">
-        <v>3.802211508243626</v>
+        <v>3.855025857907149</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.70019144434279</v>
+        <v>-8.754092455142176</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.62479214640915</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.50059184415094</v>
+        <v>-18.46775634862389</v>
       </c>
       <c r="F84" t="n">
-        <v>3.73489088703147</v>
+        <v>3.780713946977512</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.395455003398775</v>
+        <v>-8.450534321453917</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.695031357969658</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.52345418826647</v>
+        <v>-19.48578763299083</v>
       </c>
       <c r="F85" t="n">
-        <v>3.894093289586859</v>
+        <v>3.939340288207865</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.202435182603208</v>
+        <v>-8.252604887092701</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.754150562423145</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.70500833512657</v>
+        <v>-20.66944964060844</v>
       </c>
       <c r="F86" t="n">
-        <v>3.87945609500981</v>
+        <v>3.93604102789175</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.054793283457062</v>
+        <v>-8.104688049586882</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.796317763417908</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.90372649101216</v>
+        <v>-21.86785358122583</v>
       </c>
       <c r="F87" t="n">
-        <v>3.843399892983696</v>
+        <v>3.900011010471319</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.900147002290595</v>
+        <v>-7.947946999965736</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.819293973978656</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.3148148912934</v>
+        <v>-23.27579982882506</v>
       </c>
       <c r="F88" t="n">
-        <v>4.064240857317931</v>
+        <v>4.12415123512167</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.822535831044842</v>
+        <v>-7.865792799633906</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.815076852198351</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.80500698534435</v>
+        <v>-24.77188345915478</v>
       </c>
       <c r="F89" t="n">
-        <v>3.920225526058945</v>
+        <v>3.981680795598007</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.589073886771183</v>
+        <v>-7.633260408862008</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.779643056853595</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.43645193475467</v>
+        <v>-26.40387828528446</v>
       </c>
       <c r="F90" t="n">
-        <v>4.056359291007213</v>
+        <v>4.115248469189296</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.757493270527148</v>
+        <v>-7.794858702837433</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.701815141636691</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.13773122752276</v>
+        <v>-28.10376979395133</v>
       </c>
       <c r="F91" t="n">
-        <v>4.198436961445624</v>
+        <v>4.265731398052096</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.476951405234641</v>
+        <v>-7.519593035590143</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.577114372343852</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.09451990254999</v>
+        <v>-30.06613578998912</v>
       </c>
       <c r="F92" t="n">
-        <v>4.091053893537786</v>
+        <v>4.157039099860086</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.654469939465605</v>
+        <v>-7.694728770703913</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.396532791657301</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.93159256039246</v>
+        <v>-31.9023312635412</v>
       </c>
       <c r="F93" t="n">
-        <v>4.015930259831962</v>
+        <v>4.085293280287427</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.518296897608812</v>
+        <v>-7.570430447524565</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.155824433942016</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.91489314867417</v>
+        <v>-33.89174595725</v>
       </c>
       <c r="F94" t="n">
-        <v>4.286443421147706</v>
+        <v>4.359917424695473</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.390843329444609</v>
+        <v>-7.432345929452881</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.854896883240226</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.01525201666377</v>
+        <v>-35.99027190284176</v>
       </c>
       <c r="F95" t="n">
-        <v>4.003204541469804</v>
+        <v>4.076416698960736</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.183971852242495</v>
+        <v>-7.233788064555263</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.493592957845181</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.26431326032968</v>
+        <v>-38.24420348316479</v>
       </c>
       <c r="F96" t="n">
-        <v>3.874847604409522</v>
+        <v>3.953741821333763</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.25955371654778</v>
+        <v>-7.298018902296771</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.085319575467638</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.22728150229819</v>
+        <v>-40.2073288327674</v>
       </c>
       <c r="F97" t="n">
-        <v>3.677258569922192</v>
+        <v>3.748506881986865</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.894684328651715</v>
+        <v>-6.926289147711643</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.632451849561328</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.7857793236283</v>
+        <v>-42.76645508463391</v>
       </c>
       <c r="F98" t="n">
-        <v>3.656729839066366</v>
+        <v>3.728370920216291</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.93499552910139</v>
+        <v>-6.959936366014879</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.165696848645632</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.91287267402069</v>
+        <v>-44.89652038777137</v>
       </c>
       <c r="F99" t="n">
-        <v>3.574091223529391</v>
+        <v>3.650576456730755</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.688271082049063</v>
+        <v>-6.705710029434242</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.686286239065556</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.18779121579902</v>
+        <v>-47.17276125213672</v>
       </c>
       <c r="F100" t="n">
-        <v>3.47851741278479</v>
+        <v>3.553667231096298</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.529932771481228</v>
+        <v>-6.544452135332702</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.244193552838845</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.53744062219791</v>
+        <v>-49.52881279462521</v>
       </c>
       <c r="F101" t="n">
-        <v>3.185354567552861</v>
+        <v>3.24853802106703</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.571160433129823</v>
+        <v>-6.580181029787772</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.820719549222215</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.9377310559886</v>
+        <v>-51.93250722715475</v>
       </c>
       <c r="F102" t="n">
-        <v>2.784363516116474</v>
+        <v>2.848541984646615</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.577536384613744</v>
+        <v>-6.587578180893347</v>
       </c>
     </row>
   </sheetData>
